--- a/src/test/resources/testdata/caldata.xlsx
+++ b/src/test/resources/testdata/caldata.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adithbala/eclipse-workspace/PavanSeleniumSessionsMar2022/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\PavanSeleniumSessionsMar2022-main\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715117EC-3FC9-7A42-97E3-867BB0B217E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4283E0B-2603-4833-9C9D-118E907D914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="7560" windowWidth="27640" windowHeight="16940" xr2:uid="{A8A7CA8F-767B-424A-822C-4AF33FFF9EF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8A7CA8F-767B-424A-822C-4AF33FFF9EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -64,9 +54,6 @@
     <t>month(s)</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>day(s)</t>
   </si>
   <si>
@@ -80,6 +67,9 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -104,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +117,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -166,6 +176,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,22 +499,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="3" max="3" customWidth="true" width="3.33203125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6640625"/>
+    <col min="3" max="3" customWidth="true" width="3.375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.5"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.625"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20000</v>
       </c>
@@ -536,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>24000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40000</v>
       </c>
@@ -562,17 +578,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>70000</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50000</v>
       </c>
@@ -586,17 +604,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>51250</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="9">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>75000</v>
       </c>
@@ -607,20 +627,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>76500</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>75000</v>
       </c>
@@ -631,20 +653,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>75045.320000000007</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -652,7 +676,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
